--- a/public/templates/excel/project_example.xlsx
+++ b/public/templates/excel/project_example.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>STT</t>
   </si>
@@ -49,9 +49,6 @@
     <t xml:space="preserve">Truyền thông nội bộ về sự kiện </t>
   </si>
   <si>
-    <t>danthao</t>
-  </si>
-  <si>
     <t>Description test 2</t>
   </si>
   <si>
@@ -88,16 +85,10 @@
     <t>Urgent</t>
   </si>
   <si>
-    <t>Import</t>
-  </si>
-  <si>
-    <t>Mark star</t>
-  </si>
-  <si>
-    <t>fgfg</t>
-  </si>
-  <si>
-    <t>fdgfdgfd</t>
+    <t>test</t>
+  </si>
+  <si>
+    <t>ly</t>
   </si>
 </sst>
 </file>
@@ -448,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,54 +456,46 @@
     <col min="8" max="8" width="18.42578125" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -538,14 +521,8 @@
       <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -553,16 +530,16 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -571,62 +548,18 @@
         <v>90</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
         <v>6</v>
-      </c>
-      <c r="K3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="2">
-        <v>90</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3">
       <formula1>"Doing ,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:L4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
